--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20251028_201552.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20251028_201552.xlsx
@@ -4247,7 +4247,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5659,7 +5659,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
